--- a/model/results/mix5_ggpos_h2pos/v_mix.xlsx
+++ b/model/results/mix5_ggpos_h2pos/v_mix.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13817505.05608465</v>
+        <v>13775979.0265103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>24596197.70317459</v>
+        <v>24533908.65881307</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3072651.928571428</v>
+        <v>2761206.706763799</v>
       </c>
     </row>
     <row r="5">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13817505.05608466</v>
+        <v>13775979.0265103</v>
       </c>
     </row>
     <row r="3">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19596197.70317455</v>
+        <v>19533908.65881307</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3072651.928571428</v>
+        <v>2761206.706763799</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.373700797557831e-08</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.373700797557831e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13817505.05608466</v>
+        <v>13775979.0265103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19596197.70317463</v>
+        <v>19533908.65881306</v>
       </c>
     </row>
     <row r="4">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3072651.928571412</v>
+        <v>2761206.706763799</v>
       </c>
     </row>
     <row r="5">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.373700797557831e-08</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7499999.999999999</v>
+        <v>7500000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13817505.05608466</v>
+        <v>14281617.37089947</v>
       </c>
     </row>
     <row r="3">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19596197.70317459</v>
+        <v>19253580.75873015</v>
       </c>
     </row>
     <row r="4">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3072651.928571428</v>
+        <v>1359567.206349206</v>
       </c>
     </row>
     <row r="5">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.373700797557831e-08</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.373700797557831e-08</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7500000</v>
+        <v>7499999.999999999</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13817505.05608466</v>
+        <v>14281617.37089947</v>
       </c>
     </row>
     <row r="3">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19596197.70317459</v>
+        <v>19253580.75873015</v>
       </c>
     </row>
     <row r="4">
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3072651.928571428</v>
+        <v>1359567.206349206</v>
       </c>
     </row>
     <row r="5">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.373700797557831e-08</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.373700797557831e-08</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14281617.37089947</v>
+        <v>14281617.37089946</v>
       </c>
     </row>
     <row r="3">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14253580.75873016</v>
+        <v>14253580.75873015</v>
       </c>
     </row>
     <row r="4">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14281617.37089947</v>
+        <v>14281617.37089946</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9253580.758730153</v>
+        <v>9253580.758730143</v>
       </c>
     </row>
     <row r="4">
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14281617.37089947</v>
+        <v>14281617.37089946</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4253580.758730157</v>
+        <v>4253580.758730155</v>
       </c>
     </row>
     <row r="4">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925925</v>
       </c>
     </row>
     <row r="6">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7499999.999999993</v>
+        <v>7499999.999999989</v>
       </c>
       <c r="C7" t="n">
         <v>15000000</v>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14281617.37089947</v>
+        <v>14281617.37089946</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925925</v>
       </c>
     </row>
     <row r="6">
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7500000</v>
+        <v>7499999.999999997</v>
       </c>
       <c r="C7" t="n">
-        <v>19253580.75873014</v>
+        <v>19253580.75873015</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14281617.37089947</v>
+        <v>14281617.37089946</v>
       </c>
     </row>
     <row r="3">
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925925</v>
       </c>
     </row>
     <row r="6">
@@ -1629,7 +1629,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>19253580.75873015</v>
+        <v>19253580.75873001</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9340137.074074075</v>
+        <v>9325557.629629631</v>
       </c>
     </row>
     <row r="3">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10632587.5</v>
+        <v>10610718.33333333</v>
       </c>
     </row>
     <row r="4">
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18922657.27777777</v>
+        <v>18813311.44444444</v>
       </c>
     </row>
     <row r="5">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14281617.37089947</v>
+        <v>14281617.37089944</v>
       </c>
     </row>
     <row r="3">
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925926</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1847,7 +1847,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>19253580.75873014</v>
+        <v>19253580.75872997</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9340137.074074075</v>
+        <v>9325557.629629631</v>
       </c>
     </row>
     <row r="3">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10632587.5</v>
+        <v>10610718.33333333</v>
       </c>
     </row>
     <row r="4">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18922657.27777777</v>
+        <v>18813311.44444444</v>
       </c>
     </row>
     <row r="5">
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9340137.074074075</v>
+        <v>9325557.629629636</v>
       </c>
     </row>
     <row r="3">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10632587.5</v>
+        <v>10610718.33333334</v>
       </c>
     </row>
     <row r="4">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18922657.27777777</v>
+        <v>18813311.44444444</v>
       </c>
     </row>
     <row r="5">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12288253.33333333</v>
+        <v>12288253.33333334</v>
       </c>
     </row>
     <row r="7">
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12971501.52592593</v>
+        <v>13055713.31555556</v>
       </c>
     </row>
     <row r="3">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6279814.733333336</v>
+        <v>6406132.417777776</v>
       </c>
     </row>
     <row r="4">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19322474.55555556</v>
+        <v>19954062.97777778</v>
       </c>
     </row>
     <row r="5">
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12083802.66666668</v>
+        <v>12083802.66666667</v>
       </c>
     </row>
     <row r="7">
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12971501.52592593</v>
+        <v>13055713.31555555</v>
       </c>
     </row>
     <row r="3">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8102245.288888886</v>
+        <v>12360160.19555555</v>
       </c>
     </row>
     <row r="4">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>17500044</v>
+        <v>14000035.2</v>
       </c>
     </row>
     <row r="5">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13298704.0562963</v>
+        <v>13055713.31555556</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14547076.86222222</v>
+        <v>12360160.19555555</v>
       </c>
     </row>
     <row r="4">
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13817505.05608465</v>
+        <v>13761399.58206586</v>
       </c>
     </row>
     <row r="3">
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>21142169.92539681</v>
+        <v>19235581.15881307</v>
       </c>
     </row>
     <row r="4">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9026679.706349205</v>
+        <v>10428319.2067638</v>
       </c>
     </row>
     <row r="5">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12693296.95238096</v>
+        <v>12693296.95238095</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13817505.05608465</v>
+        <v>13761399.58206586</v>
       </c>
     </row>
     <row r="3">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27096197.70317459</v>
+        <v>25189608.93659084</v>
       </c>
     </row>
     <row r="4">
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3072651.928571428</v>
+        <v>4474291.428986023</v>
       </c>
     </row>
     <row r="5">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12693296.95238096</v>
+        <v>12693296.95238095</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
